--- a/Output/Descriptives/Pct_miss_season.xlsx
+++ b/Output/Descriptives/Pct_miss_season.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>51.08695652173913</v>
+        <v>51.16459627329193</v>
       </c>
       <c r="D2">
-        <v>55.4160125588697</v>
+        <v>55.4945054945055</v>
       </c>
       <c r="E2">
         <v>54.23594615993665</v>
       </c>
       <c r="F2">
-        <v>50.54347826086957</v>
+        <v>50.62111801242236</v>
       </c>
     </row>
     <row r="3">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>52.95031055900621</v>
+        <v>53.027950310559</v>
       </c>
       <c r="D3">
         <v>54.16012558869701</v>
@@ -458,7 +458,7 @@
         <v>49.48535233570863</v>
       </c>
       <c r="F4">
-        <v>50.31055900621118</v>
+        <v>50.38819875776398</v>
       </c>
     </row>
     <row r="5">
@@ -521,112 +521,112 @@
         </is>
       </c>
       <c r="C7">
-        <v>50.46583850931678</v>
+        <v>51.47515527950311</v>
       </c>
       <c r="D7">
-        <v>50.23547880690737</v>
+        <v>55.57299843014128</v>
       </c>
       <c r="E7">
-        <v>49.48535233570863</v>
+        <v>54.3151227236738</v>
       </c>
       <c r="F7">
-        <v>50.54347826086957</v>
+        <v>51.08695652173913</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C8">
-        <v>3.416149068322981</v>
+        <v>51.16459627329193</v>
       </c>
       <c r="D8">
-        <v>2.040816326530612</v>
+        <v>55.4945054945055</v>
       </c>
       <c r="E8">
-        <v>2.29612034837688</v>
+        <v>54.23594615993665</v>
       </c>
       <c r="F8">
-        <v>0.3881987577639752</v>
+        <v>50.62111801242236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C9">
-        <v>5.512422360248447</v>
+        <v>53.027950310559</v>
       </c>
       <c r="D9">
-        <v>16.71899529042386</v>
+        <v>54.16012558869701</v>
       </c>
       <c r="E9">
-        <v>12.58907363420428</v>
+        <v>49.48535233570863</v>
       </c>
       <c r="F9">
-        <v>15.91614906832298</v>
+        <v>52.95031055900621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.475155279503106</v>
+        <v>50.38819875776398</v>
       </c>
       <c r="D10">
-        <v>2.354788069073784</v>
+        <v>50.54945054945055</v>
       </c>
       <c r="E10">
-        <v>2.137767220902613</v>
+        <v>49.48535233570863</v>
       </c>
       <c r="F10">
-        <v>0.5434782608695652</v>
+        <v>50.38819875776398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C11">
-        <v>1.475155279503106</v>
+        <v>51.47515527950311</v>
       </c>
       <c r="D11">
-        <v>4.866562009419153</v>
+        <v>55.57299843014128</v>
       </c>
       <c r="E11">
-        <v>7.125890736342043</v>
+        <v>54.3151227236738</v>
       </c>
       <c r="F11">
-        <v>0.4658385093167702</v>
+        <v>51.08695652173913</v>
       </c>
     </row>
     <row r="12">
@@ -637,20 +637,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.863354037267081</v>
+        <v>3.649068322981366</v>
       </c>
       <c r="D12">
-        <v>4.866562009419153</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="E12">
-        <v>7.205067300079176</v>
+        <v>2.29612034837688</v>
       </c>
       <c r="F12">
-        <v>0.3881987577639752</v>
+        <v>2.096273291925466</v>
       </c>
     </row>
     <row r="13">
@@ -661,458 +661,458 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C13">
-        <v>7.065217391304348</v>
+        <v>5.512422360248447</v>
       </c>
       <c r="D13">
-        <v>7.299843014128729</v>
+        <v>16.71899529042386</v>
       </c>
       <c r="E13">
-        <v>7.91765637371338</v>
+        <v>12.58907363420428</v>
       </c>
       <c r="F13">
-        <v>1.863354037267081</v>
+        <v>15.91614906832298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C14">
-        <v>3.804347826086957</v>
+        <v>1.475155279503106</v>
       </c>
       <c r="D14">
-        <v>3.767660910518053</v>
+        <v>2.354788069073784</v>
       </c>
       <c r="E14">
-        <v>1.425178147268409</v>
+        <v>2.137767220902613</v>
       </c>
       <c r="F14">
-        <v>0.3105590062111801</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C15">
-        <v>12.96583850931677</v>
+        <v>1.475155279503106</v>
       </c>
       <c r="D15">
-        <v>10.04709576138148</v>
+        <v>4.866562009419153</v>
       </c>
       <c r="E15">
-        <v>6.88836104513064</v>
+        <v>7.125890736342043</v>
       </c>
       <c r="F15">
-        <v>14.59627329192547</v>
+        <v>0.4658385093167702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C16">
-        <v>1.708074534161491</v>
+        <v>1.863354037267081</v>
       </c>
       <c r="D16">
-        <v>2.276295133437991</v>
+        <v>4.866562009419153</v>
       </c>
       <c r="E16">
-        <v>1.583531274742676</v>
+        <v>7.205067300079176</v>
       </c>
       <c r="F16">
-        <v>1.397515527950311</v>
+        <v>0.3881987577639752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.6987577639751553</v>
+        <v>10.17080745341615</v>
       </c>
       <c r="D17">
-        <v>4.317111459968602</v>
+        <v>9.026687598116169</v>
       </c>
       <c r="E17">
-        <v>1.821060965954078</v>
+        <v>9.422011084718923</v>
       </c>
       <c r="F17">
-        <v>0.3105590062111801</v>
+        <v>4.037267080745342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C18">
-        <v>4.347826086956522</v>
+        <v>3.649068322981366</v>
       </c>
       <c r="D18">
-        <v>4.317111459968602</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="E18">
-        <v>2.454473475851148</v>
+        <v>2.29612034837688</v>
       </c>
       <c r="F18">
-        <v>0.3105590062111801</v>
+        <v>2.096273291925466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C19">
-        <v>7.608695652173914</v>
+        <v>5.512422360248447</v>
       </c>
       <c r="D19">
-        <v>5.965463108320251</v>
+        <v>16.71899529042386</v>
       </c>
       <c r="E19">
-        <v>9.342834520981789</v>
+        <v>12.58907363420428</v>
       </c>
       <c r="F19">
-        <v>4.270186335403727</v>
+        <v>15.91614906832298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C20">
-        <v>18.32298136645963</v>
+        <v>1.475155279503106</v>
       </c>
       <c r="D20">
-        <v>23.39089481946625</v>
+        <v>2.354788069073784</v>
       </c>
       <c r="E20">
-        <v>18.28978622327791</v>
+        <v>2.137767220902613</v>
       </c>
       <c r="F20">
-        <v>17.00310559006211</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C21">
-        <v>29.03726708074534</v>
+        <v>10.17080745341615</v>
       </c>
       <c r="D21">
-        <v>29.19937205651492</v>
+        <v>9.026687598116169</v>
       </c>
       <c r="E21">
-        <v>22.09026128266033</v>
+        <v>9.422011084718923</v>
       </c>
       <c r="F21">
-        <v>30.35714285714285</v>
+        <v>4.037267080745342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C22">
-        <v>15.527950310559</v>
+        <v>3.804347826086957</v>
       </c>
       <c r="D22">
-        <v>22.05651491365777</v>
+        <v>3.767660910518053</v>
       </c>
       <c r="E22">
-        <v>17.57719714964371</v>
+        <v>1.425178147268409</v>
       </c>
       <c r="F22">
-        <v>17.70186335403727</v>
+        <v>0.3881987577639752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C23">
-        <v>16.07142857142857</v>
+        <v>12.96583850931677</v>
       </c>
       <c r="D23">
-        <v>22.13500784929357</v>
+        <v>10.04709576138148</v>
       </c>
       <c r="E23">
-        <v>17.57719714964371</v>
+        <v>6.967537608867776</v>
       </c>
       <c r="F23">
-        <v>17.00310559006211</v>
+        <v>14.59627329192547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C24">
-        <v>15.45031055900621</v>
+        <v>1.708074534161491</v>
       </c>
       <c r="D24">
-        <v>24.48979591836735</v>
+        <v>2.276295133437991</v>
       </c>
       <c r="E24">
-        <v>18.05225653206651</v>
+        <v>1.583531274742676</v>
       </c>
       <c r="F24">
-        <v>20.57453416149069</v>
+        <v>1.552795031055901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C25">
-        <v>14.98447204968944</v>
+        <v>0.6987577639751553</v>
       </c>
       <c r="D25">
-        <v>22.13500784929357</v>
+        <v>4.317111459968602</v>
       </c>
       <c r="E25">
-        <v>17.26049089469517</v>
+        <v>1.821060965954078</v>
       </c>
       <c r="F25">
-        <v>17.1583850931677</v>
+        <v>0.3105590062111801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C26">
-        <v>19.17701863354037</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="D26">
-        <v>7.927786499215071</v>
+        <v>4.317111459968602</v>
       </c>
       <c r="E26">
-        <v>10.7680126682502</v>
+        <v>2.454473475851148</v>
       </c>
       <c r="F26">
-        <v>8.773291925465838</v>
+        <v>0.3105590062111801</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C27">
-        <v>10.01552795031056</v>
+        <v>10.63664596273292</v>
       </c>
       <c r="D27">
-        <v>16.87598116169545</v>
+        <v>8.006279434850864</v>
       </c>
       <c r="E27">
-        <v>5.700712589073635</v>
+        <v>9.897070467141726</v>
       </c>
       <c r="F27">
-        <v>26.78571428571428</v>
+        <v>4.580745341614907</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C28">
-        <v>1.475155279503106</v>
+        <v>3.804347826086957</v>
       </c>
       <c r="D28">
-        <v>2.197802197802198</v>
+        <v>3.767660910518053</v>
       </c>
       <c r="E28">
-        <v>0.870942201108472</v>
+        <v>1.425178147268409</v>
       </c>
       <c r="F28">
-        <v>2.406832298136646</v>
+        <v>0.3881987577639752</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C29">
-        <v>1.397515527950311</v>
+        <v>12.96583850931677</v>
       </c>
       <c r="D29">
-        <v>8.398744113029826</v>
+        <v>10.04709576138148</v>
       </c>
       <c r="E29">
-        <v>0.870942201108472</v>
+        <v>6.967537608867776</v>
       </c>
       <c r="F29">
-        <v>0.8540372670807453</v>
+        <v>14.59627329192547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C30">
-        <v>12.26708074534161</v>
+        <v>1.708074534161491</v>
       </c>
       <c r="D30">
-        <v>18.68131868131868</v>
+        <v>2.276295133437991</v>
       </c>
       <c r="E30">
-        <v>3.246239113222486</v>
+        <v>1.583531274742676</v>
       </c>
       <c r="F30">
-        <v>4.503105590062112</v>
+        <v>1.552795031055901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.552795031055901</v>
+        <v>10.63664596273292</v>
       </c>
       <c r="D31">
-        <v>7.221350078492936</v>
+        <v>8.006279434850864</v>
       </c>
       <c r="E31">
-        <v>1.02929532858274</v>
+        <v>9.897070467141726</v>
       </c>
       <c r="F31">
-        <v>0.8540372670807453</v>
+        <v>4.580745341614907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.950310559006211</v>
+        <v>18.32298136645963</v>
       </c>
       <c r="D32">
-        <v>3.061224489795918</v>
+        <v>23.39089481946625</v>
       </c>
       <c r="E32">
-        <v>3.008709422011085</v>
+        <v>18.36896278701504</v>
       </c>
       <c r="F32">
-        <v>0.9316770186335404</v>
+        <v>17.00310559006211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C33">
-        <v>4.891304347826087</v>
+        <v>29.03726708074534</v>
       </c>
       <c r="D33">
-        <v>10.75353218210361</v>
+        <v>29.19937205651492</v>
       </c>
       <c r="E33">
-        <v>7.363420427553444</v>
+        <v>22.32779097387173</v>
       </c>
       <c r="F33">
-        <v>14.82919254658385</v>
+        <v>30.35714285714285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.164596273291925</v>
+        <v>15.6055900621118</v>
       </c>
       <c r="D34">
-        <v>2.197802197802198</v>
+        <v>22.05651491365777</v>
       </c>
       <c r="E34">
-        <v>2.692003167062549</v>
+        <v>17.65637371338084</v>
       </c>
       <c r="F34">
-        <v>0.8540372670807453</v>
+        <v>17.70186335403727</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C35">
-        <v>6.211180124223603</v>
+        <v>16.07142857142857</v>
       </c>
       <c r="D35">
-        <v>7.064364207221351</v>
+        <v>22.13500784929357</v>
       </c>
       <c r="E35">
-        <v>6.096595407759303</v>
+        <v>17.57719714964371</v>
       </c>
       <c r="F35">
-        <v>12.18944099378882</v>
+        <v>17.00310559006211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.24223602484472</v>
+        <v>15.45031055900621</v>
       </c>
       <c r="D36">
-        <v>12.32339089481947</v>
+        <v>24.48979591836735</v>
       </c>
       <c r="E36">
-        <v>10.05542359461599</v>
+        <v>18.05225653206651</v>
       </c>
       <c r="F36">
-        <v>8.928571428571429</v>
+        <v>20.57453416149069</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1241,598 +1241,598 @@
         </is>
       </c>
       <c r="C37">
-        <v>15.21739130434783</v>
+        <v>18.55590062111801</v>
       </c>
       <c r="D37">
-        <v>13.57927786499215</v>
+        <v>24.01883830455259</v>
       </c>
       <c r="E37">
-        <v>13.93507521773555</v>
+        <v>18.68566904196358</v>
       </c>
       <c r="F37">
-        <v>14.75155279503106</v>
+        <v>17.46894409937888</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C38">
-        <v>4.425465838509317</v>
+        <v>18.32298136645963</v>
       </c>
       <c r="D38">
-        <v>4.78806907378336</v>
+        <v>23.39089481946625</v>
       </c>
       <c r="E38">
-        <v>4.117181314330958</v>
+        <v>18.36896278701504</v>
       </c>
       <c r="F38">
-        <v>2.717391304347826</v>
+        <v>17.00310559006211</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C39">
-        <v>6.444099378881988</v>
+        <v>29.03726708074534</v>
       </c>
       <c r="D39">
-        <v>19.85871271585557</v>
+        <v>29.19937205651492</v>
       </c>
       <c r="E39">
-        <v>15.43942992874109</v>
+        <v>22.32779097387173</v>
       </c>
       <c r="F39">
-        <v>10.79192546583851</v>
+        <v>30.35714285714285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C40">
-        <v>1.009316770186335</v>
+        <v>15.6055900621118</v>
       </c>
       <c r="D40">
-        <v>0.6279434850863422</v>
+        <v>22.05651491365777</v>
       </c>
       <c r="E40">
-        <v>1.02929532858274</v>
+        <v>17.65637371338084</v>
       </c>
       <c r="F40">
-        <v>0.4658385093167702</v>
+        <v>17.70186335403727</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.3881987577639752</v>
+        <v>18.55590062111801</v>
       </c>
       <c r="D41">
-        <v>5.729984301412873</v>
+        <v>24.01883830455259</v>
       </c>
       <c r="E41">
-        <v>1.346001583531275</v>
+        <v>18.68566904196358</v>
       </c>
       <c r="F41">
-        <v>0.6987577639751553</v>
+        <v>17.46894409937888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.4658385093167702</v>
+        <v>19.17701863354037</v>
       </c>
       <c r="D42">
-        <v>5.965463108320251</v>
+        <v>7.927786499215071</v>
       </c>
       <c r="E42">
-        <v>1.504354711005542</v>
+        <v>10.7680126682502</v>
       </c>
       <c r="F42">
-        <v>0.6987577639751553</v>
+        <v>8.850931677018634</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C43">
-        <v>4.580745341614907</v>
+        <v>10.17080745341615</v>
       </c>
       <c r="D43">
-        <v>5.729984301412873</v>
+        <v>16.87598116169545</v>
       </c>
       <c r="E43">
-        <v>6.01741884402217</v>
+        <v>5.700712589073635</v>
       </c>
       <c r="F43">
-        <v>1.009316770186335</v>
+        <v>26.78571428571428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C44">
-        <v>6.521739130434782</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D44">
-        <v>3.453689167974882</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="E44">
-        <v>6.492478226444972</v>
+        <v>0.870942201108472</v>
       </c>
       <c r="F44">
-        <v>0.15527950310559</v>
+        <v>2.717391304347826</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C45">
-        <v>6.366459627329192</v>
+        <v>1.397515527950311</v>
       </c>
       <c r="D45">
-        <v>21.27158555729984</v>
+        <v>8.398744113029826</v>
       </c>
       <c r="E45">
-        <v>15.12272367379256</v>
+        <v>0.870942201108472</v>
       </c>
       <c r="F45">
-        <v>7.763975155279502</v>
+        <v>0.8540372670807453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C46">
-        <v>3.105590062111801</v>
+        <v>12.26708074534161</v>
       </c>
       <c r="D46">
-        <v>1.334379905808477</v>
+        <v>18.68131868131868</v>
       </c>
       <c r="E46">
-        <v>0.395882818685669</v>
+        <v>3.246239113222486</v>
       </c>
       <c r="F46">
-        <v>0.3105590062111801</v>
+        <v>4.503105590062112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C47">
-        <v>5.822981366459627</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="D47">
-        <v>5.729984301412873</v>
+        <v>13.26530612244898</v>
       </c>
       <c r="E47">
-        <v>4.908946951702296</v>
+        <v>11.0055423594616</v>
       </c>
       <c r="F47">
-        <v>8.30745341614907</v>
+        <v>9.394409937888199</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C48">
-        <v>14.20807453416149</v>
+        <v>19.17701863354037</v>
       </c>
       <c r="D48">
-        <v>19.93720565149136</v>
+        <v>7.927786499215071</v>
       </c>
       <c r="E48">
-        <v>11.95566112430721</v>
+        <v>10.7680126682502</v>
       </c>
       <c r="F48">
-        <v>15.13975155279503</v>
+        <v>8.850931677018634</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.6211180124223602</v>
+        <v>10.17080745341615</v>
       </c>
       <c r="D49">
-        <v>8.47723704866562</v>
+        <v>16.87598116169545</v>
       </c>
       <c r="E49">
-        <v>0.6334125098970704</v>
+        <v>5.700712589073635</v>
       </c>
       <c r="F49">
-        <v>0.4658385093167702</v>
+        <v>26.78571428571428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C50">
-        <v>3.183229813664596</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D50">
-        <v>4.552590266875981</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="E50">
-        <v>0.7125890736342043</v>
+        <v>0.870942201108472</v>
       </c>
       <c r="F50">
-        <v>1.009316770186335</v>
+        <v>2.717391304347826</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>13.26530612244898</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>11.0055423594616</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>9.394409937888199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.3105590062111801</v>
+        <v>3.027950310559006</v>
       </c>
       <c r="D52">
-        <v>3.453689167974882</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="E52">
-        <v>0.3167062549485352</v>
+        <v>3.008709422011085</v>
       </c>
       <c r="F52">
-        <v>1.475155279503106</v>
+        <v>1.24223602484472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C53">
-        <v>10.40372670807453</v>
+        <v>4.891304347826087</v>
       </c>
       <c r="D53">
-        <v>16.95447409733124</v>
+        <v>10.98901098901099</v>
       </c>
       <c r="E53">
-        <v>15.9144893111639</v>
+        <v>7.996832937450514</v>
       </c>
       <c r="F53">
-        <v>7.763975155279502</v>
+        <v>14.82919254658385</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C54">
-        <v>3.027950310559006</v>
+        <v>1.24223602484472</v>
       </c>
       <c r="D54">
-        <v>5.651491365777081</v>
+        <v>2.354788069073784</v>
       </c>
       <c r="E54">
-        <v>7.521773555027712</v>
+        <v>2.692003167062549</v>
       </c>
       <c r="F54">
-        <v>0.6211180124223602</v>
+        <v>1.164596273291925</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C55">
-        <v>11.95652173913044</v>
+        <v>6.211180124223603</v>
       </c>
       <c r="D55">
-        <v>5.572998430141287</v>
+        <v>7.064364207221351</v>
       </c>
       <c r="E55">
-        <v>7.996832937450514</v>
+        <v>6.096595407759303</v>
       </c>
       <c r="F55">
-        <v>2.329192546583851</v>
+        <v>12.18944099378882</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C56">
-        <v>23.91304347826087</v>
+        <v>1.24223602484472</v>
       </c>
       <c r="D56">
-        <v>19.38775510204082</v>
+        <v>12.32339089481947</v>
       </c>
       <c r="E56">
-        <v>17.02296120348377</v>
+        <v>10.05542359461599</v>
       </c>
       <c r="F56">
-        <v>16.22670807453416</v>
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C57">
-        <v>30.04658385093168</v>
+        <v>17.77950310559006</v>
       </c>
       <c r="D57">
-        <v>34.37990580847723</v>
+        <v>15.14913657770801</v>
       </c>
       <c r="E57">
-        <v>28.66191607284244</v>
+        <v>15.9144893111639</v>
       </c>
       <c r="F57">
-        <v>29.50310559006211</v>
+        <v>15.37267080745342</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C58">
-        <v>22.82608695652174</v>
+        <v>3.027950310559006</v>
       </c>
       <c r="D58">
-        <v>16.56200941915228</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="E58">
-        <v>18.76484560570071</v>
+        <v>3.008709422011085</v>
       </c>
       <c r="F58">
-        <v>15.91614906832298</v>
+        <v>1.24223602484472</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C59">
-        <v>14.90683229813665</v>
+        <v>4.891304347826087</v>
       </c>
       <c r="D59">
-        <v>13.73626373626374</v>
+        <v>10.98901098901099</v>
       </c>
       <c r="E59">
-        <v>14.56848772763262</v>
+        <v>7.996832937450514</v>
       </c>
       <c r="F59">
-        <v>15.21739130434783</v>
+        <v>14.82919254658385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C60">
-        <v>15.37267080745342</v>
+        <v>1.24223602484472</v>
       </c>
       <c r="D60">
-        <v>13.97174254317111</v>
+        <v>2.354788069073784</v>
       </c>
       <c r="E60">
-        <v>14.25178147268409</v>
+        <v>2.692003167062549</v>
       </c>
       <c r="F60">
-        <v>15.6055900621118</v>
+        <v>1.164596273291925</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C61">
-        <v>19.79813664596273</v>
+        <v>17.77950310559006</v>
       </c>
       <c r="D61">
-        <v>14.36420722135008</v>
+        <v>15.14913657770801</v>
       </c>
       <c r="E61">
-        <v>14.56848772763262</v>
+        <v>15.9144893111639</v>
       </c>
       <c r="F61">
-        <v>19.95341614906832</v>
+        <v>15.37267080745342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="C62">
-        <v>4.580745341614907</v>
+        <v>4.503105590062112</v>
       </c>
       <c r="D62">
-        <v>2.982731554160126</v>
+        <v>4.78806907378336</v>
       </c>
       <c r="E62">
-        <v>1.187648456057007</v>
+        <v>4.354711005542359</v>
       </c>
       <c r="F62">
-        <v>0.15527950310559</v>
+        <v>2.795031055900621</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="C63">
-        <v>51.16459627329193</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="D63">
-        <v>57.22135007849294</v>
+        <v>19.85871271585557</v>
       </c>
       <c r="E63">
-        <v>54.94853523357086</v>
+        <v>15.43942992874109</v>
       </c>
       <c r="F63">
-        <v>58.92857142857143</v>
+        <v>10.79192546583851</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="C64">
-        <v>52.87267080745342</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="D64">
-        <v>57.14285714285714</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="E64">
-        <v>52.73159144893111</v>
+        <v>1.02929532858274</v>
       </c>
       <c r="F64">
-        <v>57.22049689440993</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1913,22 +1913,22 @@
         </is>
       </c>
       <c r="C65">
-        <v>51.47515527950311</v>
+        <v>0.3881987577639752</v>
       </c>
       <c r="D65">
-        <v>57.14285714285714</v>
+        <v>5.729984301412873</v>
       </c>
       <c r="E65">
-        <v>52.57323832145685</v>
+        <v>1.346001583531275</v>
       </c>
       <c r="F65">
-        <v>57.45341614906832</v>
+        <v>0.6987577639751553</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1937,22 +1937,22 @@
         </is>
       </c>
       <c r="C66">
-        <v>52.01863354037267</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="D66">
-        <v>57.37833594976453</v>
+        <v>5.965463108320251</v>
       </c>
       <c r="E66">
-        <v>52.57323832145685</v>
+        <v>1.504354711005542</v>
       </c>
       <c r="F66">
-        <v>58.22981366459628</v>
+        <v>0.6987577639751553</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1961,160 +1961,1312 @@
         </is>
       </c>
       <c r="C67">
-        <v>57.45341614906832</v>
+        <v>8.850931677018634</v>
       </c>
       <c r="D67">
-        <v>57.69230769230769</v>
+        <v>10.51805337519623</v>
       </c>
       <c r="E67">
-        <v>53.60253365003958</v>
+        <v>9.58036421219319</v>
       </c>
       <c r="F67">
-        <v>62.96583850931678</v>
+        <v>3.649068322981366</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C68">
-        <v>12.85290796160361</v>
+        <v>4.503105590062112</v>
       </c>
       <c r="D68">
-        <v>11.88811188811189</v>
+        <v>4.78806907378336</v>
       </c>
       <c r="E68">
-        <v>10.86878284027928</v>
+        <v>4.354711005542359</v>
       </c>
       <c r="F68">
-        <v>8.928571428571429</v>
+        <v>2.795031055900621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C69">
-        <v>28.12676453980802</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="D69">
-        <v>33.68060510917654</v>
+        <v>19.85871271585557</v>
       </c>
       <c r="E69">
-        <v>28.93543511120708</v>
+        <v>15.43942992874109</v>
       </c>
       <c r="F69">
-        <v>32.94748729531338</v>
+        <v>10.79192546583851</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C70">
-        <v>13.80575945793337</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="D70">
-        <v>14.61395747110033</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="E70">
-        <v>13.41682861872886</v>
+        <v>1.02929532858274</v>
       </c>
       <c r="F70">
-        <v>13.50931677018634</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C71">
-        <v>14.47628458498024</v>
+        <v>8.850931677018634</v>
       </c>
       <c r="D71">
-        <v>17.83930355358927</v>
+        <v>10.51805337519623</v>
       </c>
       <c r="E71">
-        <v>15.6625638810912</v>
+        <v>9.58036421219319</v>
       </c>
       <c r="F71">
-        <v>15.527950310559</v>
+        <v>3.649068322981366</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S08-Pudahuel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C72">
-        <v>15.81733483907397</v>
+        <v>6.677018633540373</v>
       </c>
       <c r="D72">
-        <v>20.144141572713</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="E72">
-        <v>16.25998704383503</v>
+        <v>6.492478226444972</v>
       </c>
       <c r="F72">
-        <v>16.41727837380011</v>
+        <v>1.164596273291925</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>6.444099378881988</v>
+      </c>
+      <c r="D73">
+        <v>21.27158555729984</v>
+      </c>
+      <c r="E73">
+        <v>15.12272367379256</v>
+      </c>
+      <c r="F73">
+        <v>7.763975155279502</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>3.183229813664596</v>
+      </c>
+      <c r="D74">
+        <v>1.334379905808477</v>
+      </c>
+      <c r="E74">
+        <v>0.395882818685669</v>
+      </c>
+      <c r="F74">
+        <v>0.4658385093167702</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>5.822981366459627</v>
+      </c>
+      <c r="D75">
+        <v>5.729984301412873</v>
+      </c>
+      <c r="E75">
+        <v>4.908946951702296</v>
+      </c>
+      <c r="F75">
+        <v>8.30745341614907</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>14.20807453416149</v>
+      </c>
+      <c r="D76">
+        <v>19.93720565149136</v>
+      </c>
+      <c r="E76">
+        <v>11.95566112430721</v>
+      </c>
+      <c r="F76">
+        <v>15.13975155279503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>6.832298136645963</v>
+      </c>
+      <c r="D77">
+        <v>10.59654631083203</v>
+      </c>
+      <c r="E77">
+        <v>6.809184481393507</v>
+      </c>
+      <c r="F77">
+        <v>1.397515527950311</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>6.677018633540373</v>
+      </c>
+      <c r="D78">
+        <v>3.453689167974882</v>
+      </c>
+      <c r="E78">
+        <v>6.492478226444972</v>
+      </c>
+      <c r="F78">
+        <v>1.164596273291925</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>6.444099378881988</v>
+      </c>
+      <c r="D79">
+        <v>21.27158555729984</v>
+      </c>
+      <c r="E79">
+        <v>15.12272367379256</v>
+      </c>
+      <c r="F79">
+        <v>7.763975155279502</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>3.183229813664596</v>
+      </c>
+      <c r="D80">
+        <v>1.334379905808477</v>
+      </c>
+      <c r="E80">
+        <v>0.395882818685669</v>
+      </c>
+      <c r="F80">
+        <v>0.4658385093167702</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>6.832298136645963</v>
+      </c>
+      <c r="D81">
+        <v>10.59654631083203</v>
+      </c>
+      <c r="E81">
+        <v>6.809184481393507</v>
+      </c>
+      <c r="F81">
+        <v>1.397515527950311</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>3.260869565217391</v>
+      </c>
+      <c r="D82">
+        <v>4.78806907378336</v>
+      </c>
+      <c r="E82">
+        <v>0.7125890736342043</v>
+      </c>
+      <c r="F82">
+        <v>1.475155279503106</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="D84">
+        <v>3.689167974882261</v>
+      </c>
+      <c r="E84">
+        <v>0.3167062549485352</v>
+      </c>
+      <c r="F84">
+        <v>1.940993788819876</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>10.40372670807453</v>
+      </c>
+      <c r="D85">
+        <v>16.95447409733124</v>
+      </c>
+      <c r="E85">
+        <v>15.9144893111639</v>
+      </c>
+      <c r="F85">
+        <v>7.763975155279502</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>3.027950310559006</v>
+      </c>
+      <c r="D86">
+        <v>5.651491365777081</v>
+      </c>
+      <c r="E86">
+        <v>7.521773555027712</v>
+      </c>
+      <c r="F86">
+        <v>0.6211180124223602</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>14.0527950310559</v>
+      </c>
+      <c r="D87">
+        <v>7.299843014128729</v>
+      </c>
+      <c r="E87">
+        <v>8.551068883610451</v>
+      </c>
+      <c r="F87">
+        <v>4.192546583850932</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>3.260869565217391</v>
+      </c>
+      <c r="D88">
+        <v>4.78806907378336</v>
+      </c>
+      <c r="E88">
+        <v>0.7125890736342043</v>
+      </c>
+      <c r="F88">
+        <v>1.475155279503106</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="D90">
+        <v>3.689167974882261</v>
+      </c>
+      <c r="E90">
+        <v>0.3167062549485352</v>
+      </c>
+      <c r="F90">
+        <v>1.940993788819876</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>14.0527950310559</v>
+      </c>
+      <c r="D91">
+        <v>7.299843014128729</v>
+      </c>
+      <c r="E91">
+        <v>8.551068883610451</v>
+      </c>
+      <c r="F91">
+        <v>4.192546583850932</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>23.91304347826087</v>
+      </c>
+      <c r="D92">
+        <v>19.46624803767661</v>
+      </c>
+      <c r="E92">
+        <v>17.1021377672209</v>
+      </c>
+      <c r="F92">
+        <v>16.30434782608696</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>30.04658385093168</v>
+      </c>
+      <c r="D93">
+        <v>34.37990580847723</v>
+      </c>
+      <c r="E93">
+        <v>28.66191607284244</v>
+      </c>
+      <c r="F93">
+        <v>29.50310559006211</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>22.98136645962733</v>
+      </c>
+      <c r="D94">
+        <v>16.71899529042386</v>
+      </c>
+      <c r="E94">
+        <v>18.76484560570071</v>
+      </c>
+      <c r="F94">
+        <v>16.30434782608696</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>14.90683229813665</v>
+      </c>
+      <c r="D95">
+        <v>13.73626373626374</v>
+      </c>
+      <c r="E95">
+        <v>14.56848772763262</v>
+      </c>
+      <c r="F95">
+        <v>15.21739130434783</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>15.37267080745342</v>
+      </c>
+      <c r="D96">
+        <v>13.97174254317111</v>
+      </c>
+      <c r="E96">
+        <v>14.25178147268409</v>
+      </c>
+      <c r="F96">
+        <v>15.6055900621118</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>29.27018633540373</v>
+      </c>
+      <c r="D97">
+        <v>25.43171114599686</v>
+      </c>
+      <c r="E97">
+        <v>21.29849564528899</v>
+      </c>
+      <c r="F97">
+        <v>27.87267080745341</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>23.91304347826087</v>
+      </c>
+      <c r="D98">
+        <v>19.46624803767661</v>
+      </c>
+      <c r="E98">
+        <v>17.1021377672209</v>
+      </c>
+      <c r="F98">
+        <v>16.30434782608696</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>30.04658385093168</v>
+      </c>
+      <c r="D99">
+        <v>34.37990580847723</v>
+      </c>
+      <c r="E99">
+        <v>28.66191607284244</v>
+      </c>
+      <c r="F99">
+        <v>29.50310559006211</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>22.98136645962733</v>
+      </c>
+      <c r="D100">
+        <v>16.71899529042386</v>
+      </c>
+      <c r="E100">
+        <v>18.76484560570071</v>
+      </c>
+      <c r="F100">
+        <v>16.30434782608696</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>29.27018633540373</v>
+      </c>
+      <c r="D101">
+        <v>25.43171114599686</v>
+      </c>
+      <c r="E101">
+        <v>21.29849564528899</v>
+      </c>
+      <c r="F101">
+        <v>27.87267080745341</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>4.736024844720497</v>
+      </c>
+      <c r="D102">
+        <v>2.982731554160126</v>
+      </c>
+      <c r="E102">
+        <v>1.187648456057007</v>
+      </c>
+      <c r="F102">
+        <v>0.2329192546583851</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>51.16459627329193</v>
+      </c>
+      <c r="D103">
+        <v>57.22135007849294</v>
+      </c>
+      <c r="E103">
+        <v>54.94853523357086</v>
+      </c>
+      <c r="F103">
+        <v>58.92857142857143</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>52.95031055900621</v>
+      </c>
+      <c r="D104">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="E104">
+        <v>52.73159144893111</v>
+      </c>
+      <c r="F104">
+        <v>57.29813664596274</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>51.47515527950311</v>
+      </c>
+      <c r="D105">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="E105">
+        <v>52.57323832145685</v>
+      </c>
+      <c r="F105">
+        <v>57.45341614906832</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>52.01863354037267</v>
+      </c>
+      <c r="D106">
+        <v>57.37833594976453</v>
+      </c>
+      <c r="E106">
+        <v>52.57323832145685</v>
+      </c>
+      <c r="F106">
+        <v>58.22981366459628</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>58.38509316770186</v>
+      </c>
+      <c r="D107">
+        <v>58.39874411302984</v>
+      </c>
+      <c r="E107">
+        <v>54.07759303246239</v>
+      </c>
+      <c r="F107">
+        <v>63.35403726708074</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>4.736024844720497</v>
+      </c>
+      <c r="D108">
+        <v>2.982731554160126</v>
+      </c>
+      <c r="E108">
+        <v>1.187648456057007</v>
+      </c>
+      <c r="F108">
+        <v>0.2329192546583851</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>51.16459627329193</v>
+      </c>
+      <c r="D109">
+        <v>57.22135007849294</v>
+      </c>
+      <c r="E109">
+        <v>54.94853523357086</v>
+      </c>
+      <c r="F109">
+        <v>58.92857142857143</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>52.95031055900621</v>
+      </c>
+      <c r="D110">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="E110">
+        <v>52.73159144893111</v>
+      </c>
+      <c r="F110">
+        <v>57.29813664596274</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>58.38509316770186</v>
+      </c>
+      <c r="D111">
+        <v>58.39874411302984</v>
+      </c>
+      <c r="E111">
+        <v>54.07759303246239</v>
+      </c>
+      <c r="F111">
+        <v>63.35403726708074</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>12.93054771315641</v>
+      </c>
+      <c r="D112">
+        <v>11.92379049521907</v>
+      </c>
+      <c r="E112">
+        <v>10.90477218743252</v>
+      </c>
+      <c r="F112">
+        <v>9.288537549407115</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>28.16205533596838</v>
+      </c>
+      <c r="D113">
+        <v>33.70201227344084</v>
+      </c>
+      <c r="E113">
+        <v>29.02180954437486</v>
+      </c>
+      <c r="F113">
+        <v>32.94748729531338</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>13.86222473178995</v>
+      </c>
+      <c r="D114">
+        <v>14.66390752105038</v>
+      </c>
+      <c r="E114">
+        <v>13.42402648815951</v>
+      </c>
+      <c r="F114">
+        <v>13.70694522868436</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>14.47628458498024</v>
+      </c>
+      <c r="D115">
+        <v>17.83930355358927</v>
+      </c>
+      <c r="E115">
+        <v>15.6625638810912</v>
+      </c>
+      <c r="F115">
+        <v>15.527950310559</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>15.81733483907397</v>
+      </c>
+      <c r="D116">
+        <v>20.144141572713</v>
+      </c>
+      <c r="E116">
+        <v>16.25998704383503</v>
+      </c>
+      <c r="F116">
+        <v>16.41727837380011</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Wind Speed</t>
         </is>
       </c>
-      <c r="C73">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="D73">
-        <v>18.0248323105466</v>
-      </c>
-      <c r="E73">
-        <v>16.52630821276902</v>
-      </c>
-      <c r="F73">
-        <v>16.014963297572</v>
+      <c r="C117">
+        <v>22.32495765104461</v>
+      </c>
+      <c r="D117">
+        <v>21.57128585700014</v>
+      </c>
+      <c r="E117">
+        <v>19.95969193118837</v>
+      </c>
+      <c r="F117">
+        <v>18.40062111801242</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>12.93054771315641</v>
+      </c>
+      <c r="D118">
+        <v>11.92379049521907</v>
+      </c>
+      <c r="E118">
+        <v>10.90477218743252</v>
+      </c>
+      <c r="F118">
+        <v>9.288537549407115</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>28.16205533596838</v>
+      </c>
+      <c r="D119">
+        <v>33.70201227344084</v>
+      </c>
+      <c r="E119">
+        <v>29.02180954437486</v>
+      </c>
+      <c r="F119">
+        <v>32.94748729531338</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>13.86222473178995</v>
+      </c>
+      <c r="D120">
+        <v>14.66390752105038</v>
+      </c>
+      <c r="E120">
+        <v>13.42402648815951</v>
+      </c>
+      <c r="F120">
+        <v>13.70694522868436</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>22.32495765104461</v>
+      </c>
+      <c r="D121">
+        <v>21.57128585700014</v>
+      </c>
+      <c r="E121">
+        <v>19.95969193118837</v>
+      </c>
+      <c r="F121">
+        <v>18.40062111801242</v>
       </c>
     </row>
   </sheetData>
